--- a/pred_ohlcv/54_21/2019-10-28 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 LRC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>170453.7896999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>172772.0393999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>232837.4638999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>228020.246</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>295170.7666</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>295170.7666</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>292634.4111</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>299620.5870999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>301626.6281</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>409907.7033512195</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>407683.6607512195</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>404351.6608512196</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>395277.7028512196</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>385465.9124512196</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>361558.9618512196</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>353476.7451512196</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>343882.1270512196</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>358718.1977512196</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>364571.1977512196</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>358875.8261512195</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>353735.5269512195</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>371938.4400512195</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>362892.1560512196</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>364166.7402512195</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>370160.8968512195</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>365794.8216512195</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>369640.9754973734</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>401424.1939973733</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>489539.1328973733</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>489549.1328973733</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>518790.1328973733</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>510270.1330973734</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>521333.0891973734</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>547751.5853227392</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>548751.5853227392</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>548751.5853227392</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>551477.8084227392</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>580859.5582227393</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>602891.5582227393</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>569234.0437227392</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>568002.7007227392</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>547378.6036227392</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>554278.6036227392</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>612384.8998227392</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>962885.4546227393</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>974813.3542227393</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>973647.9139227393</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>989414.6048359033</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>983098.8348359033</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>983835.6831359032</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>984230.9381359032</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>976248.4160359033</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>970117.0767359033</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>906076.3747359032</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>910006.7254359032</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>980656.7254359032</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>993106.7254359032</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>988893.4602359032</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1036927.849235903</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 LRC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>178066.9375999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>170453.7896999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>172772.0393999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>232824.9262999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>232837.4638999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>228020.246</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>295170.7666</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>295170.7666</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>292634.4111</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>299620.5870999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>293630.5870999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>301626.6281</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>409907.7033512195</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>407683.6607512195</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>404341.6608512196</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>404351.6608512196</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>395277.7028512196</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>385465.9124512196</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>380405.3342512196</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>361558.9618512196</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>353476.7451512196</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>343882.1270512196</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>358718.1977512196</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>364571.1977512196</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>358875.8261512195</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>353735.5269512195</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>371938.4400512195</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>362892.1560512196</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>364166.7402512195</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>370160.8968512195</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>370180.8968512195</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>365782.2840512195</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>365794.8216512195</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>369640.9754973734</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>388755.3206973734</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>401424.1939973733</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>483228.1939973733</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>489539.1328973733</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>489549.1328973733</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>518790.1328973733</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>510270.1330973734</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>521333.0891973734</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>523777.0170227392</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>521420.1269227392</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>517316.3711227392</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>547751.5853227392</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>548751.5853227392</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>569277.8153227392</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>580859.5582227393</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>602891.5582227393</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>569224.0437227392</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>569234.0437227392</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>568002.7007227392</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>558002.7007227392</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>546147.2606227392</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>547378.6036227392</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>554278.6036227392</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>590578.6036227392</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>965335.4046227393</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>962885.4546227393</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>974813.3542227393</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>973647.9139227393</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>989414.6048359033</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>983098.8348359033</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>983835.6831359032</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>984230.9381359032</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>976248.4160359033</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>970117.0767359033</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>906076.3747359032</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>910006.7254359032</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>980656.7254359032</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>993106.7254359032</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>988893.4602359032</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1036927.849235903</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
